--- a/src/ExcelsiorClosedXml.Tests/Tests.RealWorldScenario.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.RealWorldScenario.verified.xlsx
@@ -45,7 +45,7 @@
     <x:t>s.connor@techcorp.com</x:t>
   </x:si>
   <x:si>
-    <x:t>✓ Active</x:t>
+    <x:t>Active</x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
@@ -78,7 +78,7 @@
     <x:t>k.reese@techcorp.com</x:t>
   </x:si>
   <x:si>
-    <x:t>✗ Inactive</x:t>
+    <x:t>Inactive</x:t>
   </x:si>
   <x:si>
     <x:t>Part Time</x:t>
@@ -242,55 +242,55 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -596,13 +596,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="24.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
